--- a/biology/Biologie cellulaire et moléculaire/CD7/CD7.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/CD7/CD7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CD7 est une protéine présente chez l'homme qui est codée par le gène CD7[5]. Elle est présente à la surface des Lymphocytes T matures et des Thymocytes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CD7 est une protéine présente chez l'homme qui est codée par le gène CD7. Elle est présente à la surface des Lymphocytes T matures et des Thymocytes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce gène code une protéine transmembranaire de la superfamille des immunoglobuline. Cette protéine est présente sur les thymocytes matures et des cellules de T.  Elle joue un rôle essentiel dans les interactions des lymphocytes T et en particulier dans la relation des lymphocyte T/B  au cours du début  du développement des lymphoïdes[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce gène code une protéine transmembranaire de la superfamille des immunoglobuline. Cette protéine est présente sur les thymocytes matures et des cellules de T.  Elle joue un rôle essentiel dans les interactions des lymphocytes T et en particulier dans la relation des lymphocyte T/B  au cours du début  du développement des lymphoïdes.
 </t>
         </is>
       </c>
